--- a/fadc79353b6ce7ee.xlsx
+++ b/fadc79353b6ce7ee.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE89E1-15D5-8748-90BD-3CE1A06C3125}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159803B5-8F53-D74F-998B-87E9A317C489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug01" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>已修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复，在点击发布商品时会验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理后台的电话号码可以随意输入，但是保存时会验证，不影响数据有效性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,9 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,101 +1223,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1335,108 +1343,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1468,99 +1476,99 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1583,109 +1591,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1706,109 +1719,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1829,113 +1847,118 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="14.5" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="14.5" customHeight="1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fadc79353b6ce7ee.xlsx
+++ b/fadc79353b6ce7ee.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159803B5-8F53-D74F-998B-87E9A317C489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52A1F8-084A-334F-9BB8-C6262361547C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>1.管理后台的电话号码可以随意输入，但是保存时会验证，不影响数据有效性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.已增加收货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.已增加手机号及邮编验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1958,6 +1966,16 @@
     <row r="29" spans="4:4">
       <c r="D29" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/fadc79353b6ce7ee.xlsx
+++ b/fadc79353b6ce7ee.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52A1F8-084A-334F-9BB8-C6262361547C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF80965-7016-4D40-94D4-70415176550C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
